--- a/002792/002792_2019-01_level5.xlsx
+++ b/002792/002792_2019-01_level5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -107,11 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,17 +119,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,14 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,9 +474,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -516,29 +535,29 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.18</v>
       </c>
-      <c r="C3">
-        <v>0.28</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3" s="2">
         <v>6809</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1.56</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>4626</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.11</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.27</v>
       </c>
     </row>
@@ -547,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C4">
         <v>0.13</v>
@@ -562,7 +581,7 @@
         <v>4094</v>
       </c>
       <c r="G4">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H4">
         <v>0.36</v>
@@ -625,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D7">
         <v>5492</v>
@@ -654,7 +673,7 @@
         <v>0.16</v>
       </c>
       <c r="C8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8">
         <v>7462</v>
@@ -724,29 +743,29 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.21</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3433</v>
       </c>
-      <c r="E11">
-        <v>1.1</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="2">
         <v>3193</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.22</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -796,7 +815,7 @@
         <v>3469</v>
       </c>
       <c r="G13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H13">
         <v>0.23</v>
@@ -822,7 +841,7 @@
         <v>5495</v>
       </c>
       <c r="G14">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H14">
         <v>0.18</v>
@@ -914,7 +933,7 @@
         <v>0.17</v>
       </c>
       <c r="C18">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D18">
         <v>3441</v>
@@ -932,29 +951,29 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.13</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.34</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5503</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1.51</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>3978</v>
       </c>
-      <c r="G19">
-        <v>0.14</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H19" s="2">
         <v>0.26</v>
       </c>
     </row>
@@ -966,7 +985,7 @@
         <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D20">
         <v>3059</v>
@@ -1037,6 +1056,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>